--- a/students.xlsx
+++ b/students.xlsx
@@ -5282,7 +5282,7 @@
       </c>
       <c r="C363" s="4" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>322</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C539"/>
+  <dimension ref="A1:C540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
       <selection activeCell="H411" sqref="H411"/>
@@ -7574,6 +7574,23 @@
         <v>201</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>10701</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>한가람</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/students.xlsx
+++ b/students.xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C540"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
       <selection activeCell="H411" sqref="H411"/>
@@ -7575,19 +7575,36 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
+      <c r="A540" s="0" t="inlineStr">
         <is>
           <t>10701</t>
         </is>
       </c>
-      <c r="B540" t="inlineStr">
+      <c r="B540" s="0" t="inlineStr">
         <is>
           <t>한가람</t>
         </is>
       </c>
-      <c r="C540" t="inlineStr">
+      <c r="C540" s="0" t="inlineStr">
         <is>
           <t>600</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>10702</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>김은영</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>601</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
       <selection activeCell="H411" sqref="H411"/>
@@ -7592,19 +7592,36 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="inlineStr">
+      <c r="A541" s="0" t="inlineStr">
         <is>
           <t>10702</t>
         </is>
       </c>
-      <c r="B541" t="inlineStr">
+      <c r="B541" s="0" t="inlineStr">
         <is>
           <t>김은영</t>
         </is>
       </c>
-      <c r="C541" t="inlineStr">
+      <c r="C541" s="0" t="inlineStr">
         <is>
           <t>601</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>10703</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>한가람</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>602</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -7575,21 +7575,9 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="0" t="inlineStr">
-        <is>
-          <t>10701</t>
-        </is>
-      </c>
-      <c r="B540" s="0" t="inlineStr">
-        <is>
-          <t>한가람</t>
-        </is>
-      </c>
-      <c r="C540" s="0" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
+      <c r="A540" s="0" t="n"/>
+      <c r="B540" s="0" t="n"/>
+      <c r="C540" s="0" t="n"/>
     </row>
     <row r="541">
       <c r="A541" s="0" t="inlineStr">
@@ -7609,17 +7597,17 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr">
+      <c r="A542" s="0" t="inlineStr">
         <is>
           <t>10703</t>
         </is>
       </c>
-      <c r="B542" t="inlineStr">
+      <c r="B542" s="0" t="inlineStr">
         <is>
           <t>한가람</t>
         </is>
       </c>
-      <c r="C542" t="inlineStr">
+      <c r="C542" s="0" t="inlineStr">
         <is>
           <t>602</t>
         </is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -7580,38 +7580,14 @@
       <c r="C540" s="0" t="n"/>
     </row>
     <row r="541">
-      <c r="A541" s="0" t="inlineStr">
-        <is>
-          <t>10702</t>
-        </is>
-      </c>
-      <c r="B541" s="0" t="inlineStr">
-        <is>
-          <t>김은영</t>
-        </is>
-      </c>
-      <c r="C541" s="0" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
+      <c r="A541" s="0" t="n"/>
+      <c r="B541" s="0" t="n"/>
+      <c r="C541" s="0" t="n"/>
     </row>
     <row r="542">
-      <c r="A542" s="0" t="inlineStr">
-        <is>
-          <t>10703</t>
-        </is>
-      </c>
-      <c r="B542" s="0" t="inlineStr">
-        <is>
-          <t>한가람</t>
-        </is>
-      </c>
-      <c r="C542" s="0" t="inlineStr">
-        <is>
-          <t>602</t>
-        </is>
-      </c>
+      <c r="A542" s="0" t="n"/>
+      <c r="B542" s="0" t="n"/>
+      <c r="C542" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C532"/>
+  <dimension ref="A1:C534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -9462,6 +9462,40 @@
       <c r="C532" t="inlineStr">
         <is>
           <t>277</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>20432</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>이준우</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>20232</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>최유선</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>199</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C534"/>
+  <dimension ref="A1:C535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9499,6 +9499,23 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>10429</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>김원중</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
